--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Col2a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H2">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I2">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J2">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>9.824612585493334</v>
+        <v>3.171894859259</v>
       </c>
       <c r="R2">
-        <v>88.42151326944001</v>
+        <v>28.547053733331</v>
       </c>
       <c r="S2">
-        <v>0.0216332228727122</v>
+        <v>0.006255728024848847</v>
       </c>
       <c r="T2">
-        <v>0.02394020779903189</v>
+        <v>0.007091353286376024</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H3">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I3">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J3">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>10.5137505764</v>
+        <v>3.847892685396666</v>
       </c>
       <c r="R3">
-        <v>94.62375518760001</v>
+        <v>34.63103416857</v>
       </c>
       <c r="S3">
-        <v>0.02315066446316739</v>
+        <v>0.007588955869196191</v>
       </c>
       <c r="T3">
-        <v>0.02561947062603368</v>
+        <v>0.008602670533217012</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H4">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I4">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J4">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>5.279297640053334</v>
+        <v>2.172326107227111</v>
       </c>
       <c r="R4">
-        <v>47.51367876048</v>
+        <v>19.550934965044</v>
       </c>
       <c r="S4">
-        <v>0.01162470494025312</v>
+        <v>0.004284341666755669</v>
       </c>
       <c r="T4">
-        <v>0.01286437316850892</v>
+        <v>0.004856633830279033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H5">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I5">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J5">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>12.03072326814</v>
+        <v>2.369085339629167</v>
       </c>
       <c r="R5">
-        <v>72.18433960884001</v>
+        <v>14.214512037775</v>
       </c>
       <c r="S5">
-        <v>0.02649094969545084</v>
+        <v>0.004672397481623643</v>
       </c>
       <c r="T5">
-        <v>0.01954397777388845</v>
+        <v>0.003531016811574324</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07108</v>
+        <v>0.02601433333333333</v>
       </c>
       <c r="H6">
-        <v>0.21324</v>
+        <v>0.078043</v>
       </c>
       <c r="I6">
-        <v>0.09618084380152485</v>
+        <v>0.0274105682925934</v>
       </c>
       <c r="J6">
-        <v>0.0966656602993535</v>
+        <v>0.02930649836480982</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>6.031632266626668</v>
+        <v>2.33701402403</v>
       </c>
       <c r="R6">
-        <v>54.28469039964001</v>
+        <v>21.03312621627</v>
       </c>
       <c r="S6">
-        <v>0.0132813018299413</v>
+        <v>0.004609145250169051</v>
       </c>
       <c r="T6">
-        <v>0.01469763093189056</v>
+        <v>0.005224823903363428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H7">
         <v>1.792463</v>
       </c>
       <c r="I7">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J7">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>82.58419878461424</v>
+        <v>72.85091776471899</v>
       </c>
       <c r="R7">
-        <v>743.2577890615281</v>
+        <v>655.6582598824709</v>
       </c>
       <c r="S7">
-        <v>0.1818455804262349</v>
+        <v>0.1436792668478229</v>
       </c>
       <c r="T7">
-        <v>0.2012377447574381</v>
+        <v>0.1628716013704935</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H8">
         <v>1.792463</v>
       </c>
       <c r="I8">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J8">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
-        <v>88.37698789826335</v>
+        <v>88.37698789826332</v>
       </c>
       <c r="R8">
-        <v>795.3928910843701</v>
+        <v>795.3928910843699</v>
       </c>
       <c r="S8">
-        <v>0.1946009635886438</v>
+        <v>0.174300354985931</v>
       </c>
       <c r="T8">
-        <v>0.2153533726165457</v>
+        <v>0.1975829815868401</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H9">
         <v>1.792463</v>
       </c>
       <c r="I9">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J9">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>44.37697282771956</v>
+        <v>49.89318928204489</v>
       </c>
       <c r="R9">
-        <v>399.392755449476</v>
+        <v>449.038703538404</v>
       </c>
       <c r="S9">
-        <v>0.0977155012723735</v>
+        <v>0.09840118802477951</v>
       </c>
       <c r="T9">
-        <v>0.1081359638095338</v>
+        <v>0.1115453845357488</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H10">
         <v>1.792463</v>
       </c>
       <c r="I10">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J10">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>101.1284295694055</v>
+        <v>54.41228316604584</v>
       </c>
       <c r="R10">
-        <v>606.7705774164331</v>
+        <v>326.473698996275</v>
       </c>
       <c r="S10">
-        <v>0.2226788930967778</v>
+        <v>0.1073139116525961</v>
       </c>
       <c r="T10">
-        <v>0.164283703960408</v>
+        <v>0.08109909904956174</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,14 +1083,14 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.5974876666666668</v>
+        <v>0.5974876666666666</v>
       </c>
       <c r="H11">
         <v>1.792463</v>
       </c>
       <c r="I11">
-        <v>0.8084815410946006</v>
+        <v>0.6295558791108344</v>
       </c>
       <c r="J11">
-        <v>0.8125568348206719</v>
+        <v>0.6731009056351255</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>50.70098324673813</v>
+        <v>53.67568095223</v>
       </c>
       <c r="R11">
-        <v>456.3088492206431</v>
+        <v>483.08112857007</v>
       </c>
       <c r="S11">
-        <v>0.1116406027105706</v>
+        <v>0.1058611575997049</v>
       </c>
       <c r="T11">
-        <v>0.1235460496767462</v>
+        <v>0.1200018390924813</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H12">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I12">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J12">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>1.536927119364</v>
+        <v>3.350683033546</v>
       </c>
       <c r="R12">
-        <v>9.221562716184001</v>
+        <v>30.156147301914</v>
       </c>
       <c r="S12">
-        <v>0.003384223715997796</v>
+        <v>0.006608340656107386</v>
       </c>
       <c r="T12">
-        <v>0.002496746770036907</v>
+        <v>0.007491067073733866</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H13">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I13">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J13">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>1.644733392435</v>
+        <v>4.064784397953333</v>
       </c>
       <c r="R13">
-        <v>9.868400354610001</v>
+        <v>36.58305958158</v>
       </c>
       <c r="S13">
-        <v>0.003621606830306553</v>
+        <v>0.008016717703935939</v>
       </c>
       <c r="T13">
-        <v>0.002671878668412882</v>
+        <v>0.009087571775809192</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H14">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I14">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J14">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>0.825874368438</v>
+        <v>2.294772227259556</v>
       </c>
       <c r="R14">
-        <v>4.955246210628</v>
+        <v>20.652950045336</v>
       </c>
       <c r="S14">
-        <v>0.00181852710443366</v>
+        <v>0.004525834420648501</v>
       </c>
       <c r="T14">
-        <v>0.00134163756750361</v>
+        <v>0.005130384611507297</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H15">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I15">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J15">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>1.88204315391225</v>
+        <v>2.502622061808334</v>
       </c>
       <c r="R15">
-        <v>7.528172615649002</v>
+        <v>15.01573237085</v>
       </c>
       <c r="S15">
-        <v>0.004144149059349545</v>
+        <v>0.004935763530105408</v>
       </c>
       <c r="T15">
-        <v>0.00203825980919858</v>
+        <v>0.003730047383875689</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.0111195</v>
+        <v>0.02748066666666667</v>
       </c>
       <c r="H16">
-        <v>0.022239</v>
+        <v>0.082442</v>
       </c>
       <c r="I16">
-        <v>0.01504618588422982</v>
+        <v>0.02895560231126412</v>
       </c>
       <c r="J16">
-        <v>0.01008135255766893</v>
+        <v>0.03095839906451124</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>0.9435668962965003</v>
+        <v>2.46874300282</v>
       </c>
       <c r="R16">
-        <v>5.661401377779002</v>
+        <v>22.21868702538</v>
       </c>
       <c r="S16">
-        <v>0.002077679174142267</v>
+        <v>0.004868946000466882</v>
       </c>
       <c r="T16">
-        <v>0.001532829742516949</v>
+        <v>0.005519328219585199</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,31 +1455,31 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H17">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I17">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J17">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>8.201551939452445</v>
+        <v>22.4584811869965</v>
       </c>
       <c r="R17">
-        <v>73.813967455072</v>
+        <v>134.750887121979</v>
       </c>
       <c r="S17">
-        <v>0.01805933816365243</v>
+        <v>0.04429344489364823</v>
       </c>
       <c r="T17">
-        <v>0.01998520104446288</v>
+        <v>0.03347337189893013</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,31 +1517,31 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H18">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I18">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J18">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>8.776841903986666</v>
+        <v>27.244858142855</v>
       </c>
       <c r="R18">
-        <v>78.99157713588001</v>
+        <v>163.46914885713</v>
       </c>
       <c r="S18">
-        <v>0.01932609305204161</v>
+        <v>0.05373331405351365</v>
       </c>
       <c r="T18">
-        <v>0.02138704373045164</v>
+        <v>0.04060725484310208</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,31 +1579,31 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H19">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I19">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J19">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>4.407139052247111</v>
+        <v>15.38107256889933</v>
       </c>
       <c r="R19">
-        <v>39.664251470224</v>
+        <v>92.28643541339601</v>
       </c>
       <c r="S19">
-        <v>0.009704262689103066</v>
+        <v>0.03033511859342518</v>
       </c>
       <c r="T19">
-        <v>0.01073913335430786</v>
+        <v>0.02292480769364327</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,31 +1641,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.05933733333333333</v>
+        <v>0.1841935</v>
       </c>
       <c r="H20">
-        <v>0.178012</v>
+        <v>0.368387</v>
       </c>
       <c r="I20">
-        <v>0.08029142921964472</v>
+        <v>0.1940794886460722</v>
       </c>
       <c r="J20">
-        <v>0.08069615232230591</v>
+        <v>0.1383356997183245</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>10.043205357382</v>
+        <v>16.77421884749375</v>
       </c>
       <c r="R20">
-        <v>60.25923214429201</v>
+        <v>67.09687538997501</v>
       </c>
       <c r="S20">
-        <v>0.02211455138429279</v>
+        <v>0.03308273306503252</v>
       </c>
       <c r="T20">
-        <v>0.01631524372296675</v>
+        <v>0.01666748702850263</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.1841935</v>
+      </c>
+      <c r="H21">
+        <v>0.368387</v>
+      </c>
+      <c r="I21">
+        <v>0.1940794886460722</v>
+      </c>
+      <c r="J21">
+        <v>0.1383356997183245</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>89.83562999999999</v>
+      </c>
+      <c r="N21">
+        <v>269.50689</v>
+      </c>
+      <c r="O21">
+        <v>0.1681521229683693</v>
+      </c>
+      <c r="P21">
+        <v>0.1782820942415013</v>
+      </c>
+      <c r="Q21">
+        <v>16.547139114405</v>
+      </c>
+      <c r="R21">
+        <v>99.28283468643001</v>
+      </c>
+      <c r="S21">
+        <v>0.03263487804045256</v>
+      </c>
+      <c r="T21">
+        <v>0.02466277825414635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.113886</v>
+      </c>
+      <c r="H22">
+        <v>0.341658</v>
+      </c>
+      <c r="I22">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J22">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>121.928739</v>
+      </c>
+      <c r="N22">
+        <v>365.786217</v>
+      </c>
+      <c r="O22">
+        <v>0.2282232151508951</v>
+      </c>
+      <c r="P22">
+        <v>0.2419720431319445</v>
+      </c>
+      <c r="Q22">
+        <v>13.885976369754</v>
+      </c>
+      <c r="R22">
+        <v>124.973787327786</v>
+      </c>
+      <c r="S22">
+        <v>0.02738643472846774</v>
+      </c>
+      <c r="T22">
+        <v>0.03104464950241097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.113886</v>
+      </c>
+      <c r="H23">
+        <v>0.341658</v>
+      </c>
+      <c r="I23">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J23">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2768624053389947</v>
+      </c>
+      <c r="P23">
+        <v>0.2935413991166814</v>
+      </c>
+      <c r="Q23">
+        <v>16.84537138638</v>
+      </c>
+      <c r="R23">
+        <v>151.60834247742</v>
+      </c>
+      <c r="S23">
+        <v>0.0332230627264179</v>
+      </c>
+      <c r="T23">
+        <v>0.03766092037771303</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.113886</v>
+      </c>
+      <c r="H24">
+        <v>0.341658</v>
+      </c>
+      <c r="I24">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J24">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>83.50496933333334</v>
+      </c>
+      <c r="N24">
+        <v>250.514908</v>
+      </c>
+      <c r="O24">
+        <v>0.1563025480180701</v>
+      </c>
+      <c r="P24">
+        <v>0.1657186665504434</v>
+      </c>
+      <c r="Q24">
+        <v>9.510046937496</v>
+      </c>
+      <c r="R24">
+        <v>85.590422437464</v>
+      </c>
+      <c r="S24">
+        <v>0.01875606531246119</v>
+      </c>
+      <c r="T24">
+        <v>0.02126145587926494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>0.05933733333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.178012</v>
-      </c>
-      <c r="I21">
-        <v>0.08029142921964472</v>
-      </c>
-      <c r="J21">
-        <v>0.08069615232230591</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>84.85695366666668</v>
-      </c>
-      <c r="N21">
-        <v>254.570861</v>
-      </c>
-      <c r="O21">
-        <v>0.138086767645209</v>
-      </c>
-      <c r="P21">
-        <v>0.1520460408212704</v>
-      </c>
-      <c r="Q21">
-        <v>5.035185345370223</v>
-      </c>
-      <c r="R21">
-        <v>45.31666810833201</v>
-      </c>
-      <c r="S21">
-        <v>0.01108718393055483</v>
-      </c>
-      <c r="T21">
-        <v>0.01226953047011678</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.113886</v>
+      </c>
+      <c r="H25">
+        <v>0.341658</v>
+      </c>
+      <c r="I25">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J25">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>91.06846250000001</v>
+      </c>
+      <c r="N25">
+        <v>182.136925</v>
+      </c>
+      <c r="O25">
+        <v>0.1704597085236707</v>
+      </c>
+      <c r="P25">
+        <v>0.1204857969594293</v>
+      </c>
+      <c r="Q25">
+        <v>10.371422920275</v>
+      </c>
+      <c r="R25">
+        <v>62.22853752165001</v>
+      </c>
+      <c r="S25">
+        <v>0.02045490279431302</v>
+      </c>
+      <c r="T25">
+        <v>0.01545814668591495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.113886</v>
+      </c>
+      <c r="H26">
+        <v>0.341658</v>
+      </c>
+      <c r="I26">
+        <v>0.1199984616392358</v>
+      </c>
+      <c r="J26">
+        <v>0.1282984972172289</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>89.83562999999999</v>
+      </c>
+      <c r="N26">
+        <v>269.50689</v>
+      </c>
+      <c r="O26">
+        <v>0.1681521229683693</v>
+      </c>
+      <c r="P26">
+        <v>0.1782820942415013</v>
+      </c>
+      <c r="Q26">
+        <v>10.23102055818</v>
+      </c>
+      <c r="R26">
+        <v>92.07918502362</v>
+      </c>
+      <c r="S26">
+        <v>0.02017799607757592</v>
+      </c>
+      <c r="T26">
+        <v>0.02287332477192499</v>
       </c>
     </row>
   </sheetData>
